--- a/Spreadsheets/Analytics.xlsx
+++ b/Spreadsheets/Analytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samcoburn/Documents/School Files/Columbia Files/Spring 2022/COMS 6156/COMS6156_FinalProject/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0FC9E6-9CDC-2847-97A8-6862D3A5534F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC41EC-D030-3D45-9832-445305B1F188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="500" windowWidth="18100" windowHeight="15880" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
+    <workbookView xWindow="8940" yWindow="500" windowWidth="19860" windowHeight="15820" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Tool</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>TN</t>
+  </si>
+  <si>
+    <t>Java-Large</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
   </si>
 </sst>
 </file>
@@ -443,57 +452,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865E5F3-CE15-C140-8EC1-D46FE3EB7CC3}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -504,119 +512,268 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>66</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>452</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8780</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>220</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>548</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.4103</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.67259999999999998</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.8125</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.54069999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>86</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>658</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>342</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.42920000000000003</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.8891</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.79369999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>76</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>734</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8972</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>28</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>266</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.43140000000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.96330000000000005</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.73399999999999999</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.92100000000000004</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.83309999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>344</v>
+      </c>
+      <c r="F7">
+        <v>8988</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>656</v>
+      </c>
+      <c r="I7">
+        <v>0.4148</v>
+      </c>
+      <c r="J7">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="M7">
+        <v>0.50739999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>628</v>
+      </c>
+      <c r="F8">
+        <v>9000</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>372</v>
+      </c>
+      <c r="I8">
+        <v>0.4279</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.628</v>
+      </c>
+      <c r="L8">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.77149999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>788</v>
+      </c>
+      <c r="F9">
+        <v>8976</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>212</v>
+      </c>
+      <c r="I9">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.86980000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets/Analytics.xlsx
+++ b/Spreadsheets/Analytics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samcoburn/Documents/School Files/Columbia Files/Spring 2022/COMS 6156/COMS6156_FinalProject/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC41EC-D030-3D45-9832-445305B1F188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC3405-2FD4-8E44-BA1B-ED6661CF156B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="500" windowWidth="19860" windowHeight="15820" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
+    <workbookView xWindow="16980" yWindow="500" windowWidth="11820" windowHeight="15820" activeTab="1" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>Tool</t>
   </si>
@@ -85,6 +86,12 @@
   </si>
   <si>
     <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Original Dataset</t>
+  </si>
+  <si>
+    <t>Precision@N</t>
   </si>
 </sst>
 </file>
@@ -122,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,14 +137,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865E5F3-CE15-C140-8EC1-D46FE3EB7CC3}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +738,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1"/>
@@ -779,4 +879,429 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEBEF3A-9650-0E43-9F43-0C39B0DBBFA3}">
+  <dimension ref="B1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>66</v>
+      </c>
+      <c r="E4" s="10">
+        <v>452</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8780</v>
+      </c>
+      <c r="G4" s="10">
+        <v>220</v>
+      </c>
+      <c r="H4" s="10">
+        <v>548</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.4103</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.54069999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <v>87</v>
+      </c>
+      <c r="E6" s="13">
+        <v>344</v>
+      </c>
+      <c r="F6" s="13">
+        <v>8988</v>
+      </c>
+      <c r="G6" s="13">
+        <v>12</v>
+      </c>
+      <c r="H6" s="13">
+        <v>656</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.4148</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.50739999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10">
+        <v>86</v>
+      </c>
+      <c r="E11" s="10">
+        <v>658</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9000</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>342</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.8891</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.79369999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10">
+        <v>76</v>
+      </c>
+      <c r="E12" s="10">
+        <v>734</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8972</v>
+      </c>
+      <c r="G12" s="10">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10">
+        <v>266</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.83309999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>91</v>
+      </c>
+      <c r="E14" s="10">
+        <v>628</v>
+      </c>
+      <c r="F14" s="10">
+        <v>9000</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>372</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.4279</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.628</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.77149999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13">
+        <v>88</v>
+      </c>
+      <c r="E15" s="13">
+        <v>788</v>
+      </c>
+      <c r="F15" s="13">
+        <v>8976</v>
+      </c>
+      <c r="G15" s="13">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13">
+        <v>212</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.86980000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Spreadsheets/Analytics.xlsx
+++ b/Spreadsheets/Analytics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samcoburn/Documents/School Files/Columbia Files/Spring 2022/COMS 6156/COMS6156_FinalProject/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC3405-2FD4-8E44-BA1B-ED6661CF156B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B882C6D-15BF-EC45-8A14-EE7C4B8EEC15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="500" windowWidth="11820" windowHeight="15820" activeTab="1" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenario 1 &amp; 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario 4" sheetId="3" r:id="rId2"/>
+    <sheet name="Tables for Paper" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>Tool</t>
   </si>
@@ -92,6 +93,15 @@
   </si>
   <si>
     <t>Precision@N</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Scenario 4</t>
   </si>
 </sst>
 </file>
@@ -221,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +567,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,11 +894,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C32950-6B00-084B-A361-DA841BF1F5CF}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.76910000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.48</v>
+      </c>
+      <c r="E5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.76160000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEBEF3A-9650-0E43-9F43-0C39B0DBBFA3}">
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,42 +1369,79 @@
         <v>0.86980000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="E19" s="10">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.76910000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="13">
         <v>0.48</v>
       </c>
+      <c r="E21" s="13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.76160000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spreadsheets/Analytics.xlsx
+++ b/Spreadsheets/Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samcoburn/Documents/School Files/Columbia Files/Spring 2022/COMS 6156/COMS6156_FinalProject/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B882C6D-15BF-EC45-8A14-EE7C4B8EEC15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D916237-B4A4-F847-866B-EB4B2D0E80D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{FFE897EF-CC1A-114C-953C-A7E1FE5B8A2E}"/>
   </bookViews>
@@ -990,13 +990,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEBEF3A-9650-0E43-9F43-0C39B0DBBFA3}">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
